--- a/Excel/excel/english.xlsx
+++ b/Excel/excel/english.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\ProjectZoo\Excel\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61DD7A4-0C74-47A9-B526-84E7729298BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1F11D4-05F5-4357-B135-957980A37B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19103" yWindow="7298" windowWidth="19395" windowHeight="11474" tabRatio="861" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="861" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="card" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="907">
   <si>
     <t>uid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2114,19 +2114,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Play $w1 Primate Exhibit card(s) from your hand for free.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Remove $w1 Curse card(s) from your hand.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Choose 1 animal exhibit. Add $1 copy(copies) of that card to your hand.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gain the next $w1 Primate Exhibit card(s) from the draw pile.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2237,10 +2229,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Gain the next $w1 Mammal Exhibit card(s) from the draw pile.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>You may discard Curse card(s) directly.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2283,10 +2271,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>At the start of each quarter, 50% chance to gain $1 coin(s).</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Convert $1% of your interest into additional popularity.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2351,10 +2335,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Gain the next $w1 Reptile Exhibit card(s) from the draw pile.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Expand $w1 plot(s) for free.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2468,10 +2448,6 @@
   </si>
   <si>
     <t>Gain $1 book slots. At the start of each quarter, gain $1 random book(s).</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gain the next $w1 Aquatic Exhibit cards from the draw pile.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2560,10 +2536,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Have at least 10 buildable plots.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Gain at least 50 popularity from Primate Exhibits in a single quarter.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2788,10 +2760,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(Current level: %s)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Play up to {num=1} card(s) for free.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3189,10 +3157,6 @@
   </si>
   <si>
     <t>A salesman came to the zoo. He is willing to offer a project save service, but of course, it comes at a cost.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No more discarding cards, but income is halved.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3369,14 +3333,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>At the start of each quarter, there is a 50% chance to gain 10 Coins, but the negative probability increases by 5%.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>When you purchase Books in the Shop, you receive a random discount of 1–5 Coins, but Plan cards in the Shop cost 1 additional Coin.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>At the end of the quarter, gain 3 Coins for each unassigned Worker.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3386,10 +3342,6 @@
   </si>
   <si>
     <t>Gain 200 Coins, but you will no longer receive any interest or plot rewards.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Repeating Action Space actions requires only one Worker, but Workers cannot be assigned within two turns after recruitment.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3411,6 +3363,287 @@
   </si>
   <si>
     <t>At the start of each quarter, a random reward appears on the map, but a Curse card is added to your hand.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Current level: {0})</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No more discarding cards, but you can not gain any income.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Repeating Action Space actions requires only one Worker.
+But you cannot assign any Temporary or Special Workers. 
+Recruiting Workers costs double.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When you purchase Books in the Shop, you receive a random discount of 1–5 Coins.
+Plan cards in the Shop cost 1 additional Coin.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>At the start of each quarter, there is a 50% chance to gain 10 Coins.
+The negative probability increases by 5%.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Worker recruitment costs are doubled.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Special Workers cannot be assigned.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Temporary Workers cannot be assigned.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of Permanent Plan cards owned.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannot gain any income.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Have at least 20 buildable plots.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30% chance to gain $1 income. Return this card to your hand.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring only. Gain $1% popularity after resolving all exhibits.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remove $1 Curse card(s) from your hand.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Summer only. Gain $1% popularity after resolving all exhibits.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demolish an exhibit and refund $1% of its coin cost.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recruit $1 temporary worker(s).</t>
+  </si>
+  <si>
+    <t>August only. Gain $1% popularity after resolving all exhibits.</t>
+  </si>
+  <si>
+    <t>Play $1 Large Exhibit card(s) for free.</t>
+  </si>
+  <si>
+    <t>Expand $1 plot(s) for free.</t>
+  </si>
+  <si>
+    <t>Winter only. Gain $1% popularity after resolving all exhibits.</t>
+  </si>
+  <si>
+    <t>Draw $1 card(s).</t>
+  </si>
+  <si>
+    <t>Discard up to $1 cards from your hand and draw the same number of card(s).</t>
+  </si>
+  <si>
+    <t>Gain $1 random book(s).</t>
+  </si>
+  <si>
+    <t>Gain $1 coin(s). Each time this is triggered, permanently increase the amount by $2.</t>
+  </si>
+  <si>
+    <t>Pay $1 coin(s). Gain the next Primate Exhibit card(s) from the draw pile.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pay $1 coin(s). Gain the next 1 Reptile Exhibit card(s) from the draw pile.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pay $1 coin(s). Gain the next 1 Mammal Exhibit card(s) from the draw pile.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pay $1 coin(s). Gain the next 1 Aquatic Exhibit cards from the draw pile.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pay $w1 coins. Gain the next Mammal Exhibit card(s) from the draw pile.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pay $w1 coins. Gain the next Primate Exhibit card(s) from the draw pile.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pay $w1 coins. Gain the next Reptile Exhibit card(s) from the draw pile.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pay $w1 coins. Gain the next Aquatic Exhibit cards from the draw pile.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Play 1 Primate Exhibit card from your hand for free.(Limit time: $1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Play 1 Primate Exhibit card(s) from your hand for free.(Limit time: $w1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cardContWithCond</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Play condition:
+{cond=至少拥有10个海洋场馆}
+{cont=获得3点人气值.如果与3个澳洲野犬场馆相邻，额外获得3点人气值。}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigExhibit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smallExhibit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Small Exhibit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Primate Exhibits</t>
+  </si>
+  <si>
+    <t>Mammal Exhibits</t>
+  </si>
+  <si>
+    <t>Large Exhibit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reptile Exhibits</t>
+  </si>
+  <si>
+    <t>Aquatic Exhibits</t>
+  </si>
+  <si>
+    <t>Aquatic Exhibits</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssIncome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssPopularity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssBook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssHalfChange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssPlotRewards</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssCurse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssCard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssRandomGain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssRCoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssRPopularity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sRTWorker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssRCurse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssRBook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gain {0} coin(s) by income.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gain {0} popularity.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gain {0} book(s).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Successfully gain {0} Coins with a 50% chance.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gain {0} random plot reward(s).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gain {0} random curse card(s).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Draw {0} card(s).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain random item:   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0} coin(s).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0} popularity.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{0} book(s). </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0} curse card(s).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0} temporary worker(s).</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3741,8 +3974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E139"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="B29" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3785,11 +4018,11 @@
         <v>360</v>
       </c>
       <c r="C4" t="s">
-        <v>271</v>
+        <v>875</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -3800,7 +4033,7 @@
         <v>317</v>
       </c>
       <c r="C5" t="s">
-        <v>271</v>
+        <v>875</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
@@ -3815,7 +4048,7 @@
         <v>318</v>
       </c>
       <c r="C6" t="s">
-        <v>271</v>
+        <v>875</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
@@ -3830,7 +4063,7 @@
         <v>319</v>
       </c>
       <c r="C7" t="s">
-        <v>271</v>
+        <v>875</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
@@ -3845,7 +4078,7 @@
         <v>320</v>
       </c>
       <c r="C8" t="s">
-        <v>271</v>
+        <v>875</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
@@ -3860,7 +4093,7 @@
         <v>321</v>
       </c>
       <c r="C9" t="s">
-        <v>271</v>
+        <v>875</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
@@ -3875,7 +4108,7 @@
         <v>322</v>
       </c>
       <c r="C10" t="s">
-        <v>271</v>
+        <v>875</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
@@ -3890,7 +4123,7 @@
         <v>323</v>
       </c>
       <c r="C11" t="s">
-        <v>271</v>
+        <v>875</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
@@ -3905,7 +4138,7 @@
         <v>324</v>
       </c>
       <c r="C12" t="s">
-        <v>271</v>
+        <v>875</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
@@ -3920,7 +4153,7 @@
         <v>325</v>
       </c>
       <c r="C13" t="s">
-        <v>271</v>
+        <v>875</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
@@ -3935,7 +4168,7 @@
         <v>361</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>519</v>
@@ -3949,10 +4182,10 @@
         <v>362</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -3963,7 +4196,7 @@
         <v>363</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>634</v>
+        <v>845</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>520</v>
@@ -3977,7 +4210,7 @@
         <v>364</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>521</v>
@@ -3995,7 +4228,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>154</v>
       </c>
@@ -4004,7 +4237,7 @@
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>527</v>
+        <v>865</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -4016,7 +4249,7 @@
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4031,7 +4264,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>157</v>
       </c>
@@ -4040,7 +4273,7 @@
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>524</v>
+        <v>869</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4052,7 +4285,7 @@
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4064,7 +4297,7 @@
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -4076,7 +4309,7 @@
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4088,7 +4321,7 @@
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4100,7 +4333,7 @@
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4112,7 +4345,7 @@
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4124,7 +4357,7 @@
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -4136,7 +4369,7 @@
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -4148,7 +4381,7 @@
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4160,7 +4393,7 @@
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -4172,7 +4405,7 @@
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -4184,7 +4417,7 @@
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -4195,7 +4428,7 @@
         <v>326</v>
       </c>
       <c r="C35" t="s">
-        <v>272</v>
+        <v>876</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
@@ -4210,7 +4443,7 @@
         <v>327</v>
       </c>
       <c r="C36" t="s">
-        <v>272</v>
+        <v>876</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
@@ -4225,7 +4458,7 @@
         <v>328</v>
       </c>
       <c r="C37" t="s">
-        <v>272</v>
+        <v>876</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
@@ -4240,11 +4473,11 @@
         <v>329</v>
       </c>
       <c r="C38" t="s">
-        <v>272</v>
+        <v>876</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -4255,11 +4488,11 @@
         <v>330</v>
       </c>
       <c r="C39" t="s">
-        <v>272</v>
+        <v>876</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4270,11 +4503,11 @@
         <v>331</v>
       </c>
       <c r="C40" t="s">
-        <v>272</v>
+        <v>876</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4285,11 +4518,11 @@
         <v>332</v>
       </c>
       <c r="C41" t="s">
-        <v>272</v>
+        <v>876</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4300,11 +4533,11 @@
         <v>333</v>
       </c>
       <c r="C42" t="s">
-        <v>272</v>
+        <v>876</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4315,11 +4548,11 @@
         <v>334</v>
       </c>
       <c r="C43" t="s">
-        <v>272</v>
+        <v>876</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4330,11 +4563,11 @@
         <v>335</v>
       </c>
       <c r="C44" t="s">
-        <v>272</v>
+        <v>876</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -4345,11 +4578,11 @@
         <v>336</v>
       </c>
       <c r="C45" t="s">
-        <v>272</v>
+        <v>876</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4360,10 +4593,10 @@
         <v>365</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -4374,10 +4607,10 @@
         <v>366</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -4388,7 +4621,7 @@
         <v>367</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>521</v>
@@ -4402,10 +4635,10 @@
         <v>368</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -4417,10 +4650,10 @@
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>184</v>
       </c>
@@ -4429,7 +4662,7 @@
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1" t="s">
-        <v>554</v>
+        <v>864</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -4441,7 +4674,7 @@
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -4453,7 +4686,7 @@
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -4465,7 +4698,7 @@
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -4477,7 +4710,7 @@
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4489,7 +4722,7 @@
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="42" x14ac:dyDescent="0.3">
@@ -4501,7 +4734,7 @@
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="42" x14ac:dyDescent="0.3">
@@ -4513,7 +4746,7 @@
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4525,7 +4758,7 @@
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -4537,7 +4770,7 @@
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4549,7 +4782,7 @@
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4561,7 +4794,7 @@
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -4573,7 +4806,7 @@
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1" t="s">
-        <v>565</v>
+        <v>846</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -4585,7 +4818,7 @@
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -4597,7 +4830,7 @@
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -4609,7 +4842,7 @@
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4621,7 +4854,7 @@
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4632,11 +4865,11 @@
         <v>337</v>
       </c>
       <c r="C68" t="s">
-        <v>279</v>
+        <v>878</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="42" x14ac:dyDescent="0.3">
@@ -4647,11 +4880,11 @@
         <v>338</v>
       </c>
       <c r="C69" t="s">
-        <v>279</v>
+        <v>878</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4662,11 +4895,11 @@
         <v>339</v>
       </c>
       <c r="C70" t="s">
-        <v>279</v>
+        <v>878</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4677,11 +4910,11 @@
         <v>340</v>
       </c>
       <c r="C71" t="s">
-        <v>279</v>
+        <v>878</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -4692,11 +4925,11 @@
         <v>341</v>
       </c>
       <c r="C72" t="s">
-        <v>279</v>
+        <v>878</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4707,11 +4940,11 @@
         <v>342</v>
       </c>
       <c r="C73" t="s">
-        <v>279</v>
+        <v>878</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -4722,11 +4955,11 @@
         <v>343</v>
       </c>
       <c r="C74" t="s">
-        <v>279</v>
+        <v>878</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -4737,11 +4970,11 @@
         <v>344</v>
       </c>
       <c r="C75" t="s">
-        <v>279</v>
+        <v>878</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -4752,7 +4985,7 @@
         <v>345</v>
       </c>
       <c r="C76" t="s">
-        <v>279</v>
+        <v>878</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1" t="s">
@@ -4767,7 +5000,7 @@
         <v>346</v>
       </c>
       <c r="C77" t="s">
-        <v>279</v>
+        <v>878</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1" t="s">
@@ -4782,10 +5015,10 @@
         <v>369</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4796,7 +5029,7 @@
         <v>370</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>521</v>
@@ -4810,10 +5043,10 @@
         <v>371</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4824,10 +5057,10 @@
         <v>372</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
@@ -4839,7 +5072,7 @@
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
@@ -4851,7 +5084,7 @@
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4863,10 +5096,10 @@
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>218</v>
       </c>
@@ -4875,7 +5108,7 @@
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1" t="s">
-        <v>582</v>
+        <v>866</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -4887,7 +5120,7 @@
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
@@ -4899,7 +5132,7 @@
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4911,7 +5144,7 @@
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
@@ -4923,7 +5156,7 @@
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
@@ -4935,7 +5168,7 @@
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
@@ -4947,7 +5180,7 @@
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
@@ -4959,7 +5192,7 @@
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
@@ -4971,7 +5204,7 @@
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
@@ -4983,7 +5216,7 @@
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4995,7 +5228,7 @@
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
@@ -5007,7 +5240,7 @@
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
@@ -5019,7 +5252,7 @@
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
@@ -5031,7 +5264,7 @@
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -5043,7 +5276,7 @@
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -5054,11 +5287,11 @@
         <v>347</v>
       </c>
       <c r="C100" t="s">
-        <v>284</v>
+        <v>879</v>
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="1" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -5069,11 +5302,11 @@
         <v>348</v>
       </c>
       <c r="C101" t="s">
-        <v>284</v>
+        <v>879</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -5084,11 +5317,11 @@
         <v>349</v>
       </c>
       <c r="C102" t="s">
-        <v>284</v>
+        <v>879</v>
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="1" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -5099,11 +5332,11 @@
         <v>350</v>
       </c>
       <c r="C103" t="s">
-        <v>284</v>
+        <v>879</v>
       </c>
       <c r="D103" s="1"/>
       <c r="E103" s="1" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -5114,11 +5347,11 @@
         <v>351</v>
       </c>
       <c r="C104" t="s">
-        <v>284</v>
+        <v>879</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -5129,11 +5362,11 @@
         <v>352</v>
       </c>
       <c r="C105" t="s">
-        <v>284</v>
+        <v>879</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -5144,11 +5377,11 @@
         <v>353</v>
       </c>
       <c r="C106" t="s">
-        <v>284</v>
+        <v>879</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -5159,11 +5392,11 @@
         <v>354</v>
       </c>
       <c r="C107" t="s">
-        <v>284</v>
+        <v>879</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -5174,11 +5407,11 @@
         <v>355</v>
       </c>
       <c r="C108" t="s">
-        <v>284</v>
+        <v>879</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
@@ -5189,11 +5422,11 @@
         <v>356</v>
       </c>
       <c r="C109" t="s">
-        <v>284</v>
+        <v>879</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
@@ -5204,11 +5437,11 @@
         <v>357</v>
       </c>
       <c r="C110" t="s">
-        <v>284</v>
+        <v>879</v>
       </c>
       <c r="D110" s="1"/>
       <c r="E110" s="1" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
@@ -5219,11 +5452,11 @@
         <v>358</v>
       </c>
       <c r="C111" t="s">
-        <v>284</v>
+        <v>879</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -5234,11 +5467,11 @@
         <v>359</v>
       </c>
       <c r="C112" t="s">
-        <v>284</v>
+        <v>880</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="1" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
@@ -5249,10 +5482,10 @@
         <v>373</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
@@ -5263,10 +5496,10 @@
         <v>374</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -5277,10 +5510,10 @@
         <v>375</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -5291,10 +5524,10 @@
         <v>376</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
@@ -5306,10 +5539,10 @@
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>250</v>
       </c>
@@ -5318,7 +5551,7 @@
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1" t="s">
-        <v>612</v>
+        <v>867</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
@@ -5330,7 +5563,7 @@
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -5342,7 +5575,7 @@
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
@@ -5354,7 +5587,7 @@
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
@@ -5366,7 +5599,7 @@
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="56" x14ac:dyDescent="0.3">
@@ -5378,7 +5611,7 @@
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
@@ -5390,7 +5623,7 @@
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="1" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -5402,7 +5635,7 @@
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -5414,7 +5647,7 @@
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
@@ -5426,7 +5659,7 @@
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
@@ -5438,7 +5671,7 @@
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -5450,7 +5683,7 @@
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -5462,7 +5695,7 @@
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
@@ -5474,7 +5707,7 @@
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
@@ -5486,7 +5719,7 @@
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
@@ -5498,7 +5731,7 @@
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="1" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
@@ -5510,7 +5743,7 @@
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="1" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
@@ -5521,7 +5754,7 @@
         <v>447</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
@@ -5532,7 +5765,7 @@
         <v>448</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
@@ -5543,7 +5776,7 @@
         <v>449</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
@@ -5554,7 +5787,7 @@
         <v>450</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
@@ -5565,7 +5798,7 @@
         <v>451</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
     </row>
   </sheetData>
@@ -5579,7 +5812,7 @@
   <dimension ref="A2:C30"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5605,10 +5838,10 @@
         <v>308</v>
       </c>
       <c r="B4" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="C4" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -5619,7 +5852,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -5627,10 +5860,10 @@
         <v>309</v>
       </c>
       <c r="B6" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="C6" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -5641,7 +5874,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -5652,7 +5885,7 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -5663,7 +5896,7 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -5674,7 +5907,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -5685,10 +5918,10 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>153</v>
       </c>
@@ -5696,10 +5929,10 @@
         <v>99</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>154</v>
       </c>
@@ -5707,7 +5940,7 @@
         <v>100</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>527</v>
+        <v>860</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -5718,10 +5951,10 @@
         <v>101</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>156</v>
       </c>
@@ -5740,10 +5973,10 @@
         <v>103</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>183</v>
       </c>
@@ -5751,10 +5984,10 @@
         <v>115</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>184</v>
       </c>
@@ -5762,7 +5995,7 @@
         <v>116</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>554</v>
+        <v>862</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -5773,7 +6006,7 @@
         <v>13</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>556</v>
+        <v>850</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -5784,10 +6017,10 @@
         <v>117</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>215</v>
       </c>
@@ -5795,7 +6028,7 @@
         <v>118</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>552</v>
+        <v>852</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -5806,10 +6039,10 @@
         <v>119</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>217</v>
       </c>
@@ -5817,10 +6050,10 @@
         <v>120</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>218</v>
       </c>
@@ -5828,7 +6061,7 @@
         <v>121</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>582</v>
+        <v>861</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -5839,10 +6072,10 @@
         <v>14</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>249</v>
       </c>
@@ -5850,10 +6083,10 @@
         <v>131</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>250</v>
       </c>
@@ -5861,7 +6094,7 @@
         <v>132</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>612</v>
+        <v>863</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -5872,10 +6105,10 @@
         <v>134</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>252</v>
       </c>
@@ -5883,7 +6116,7 @@
         <v>133</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>614</v>
+        <v>857</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -5894,7 +6127,7 @@
         <v>135</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>615</v>
+        <v>858</v>
       </c>
     </row>
   </sheetData>
@@ -6588,7 +6821,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -6599,7 +6832,7 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -6621,7 +6854,7 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -6632,7 +6865,7 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -6643,7 +6876,7 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -6654,7 +6887,7 @@
         <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -6665,7 +6898,7 @@
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -6676,7 +6909,7 @@
         <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -6687,7 +6920,7 @@
         <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -6698,7 +6931,7 @@
         <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -6709,7 +6942,7 @@
         <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -6720,7 +6953,7 @@
         <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -6731,7 +6964,7 @@
         <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -6742,7 +6975,7 @@
         <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -6753,7 +6986,7 @@
         <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -6764,7 +6997,7 @@
         <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -6775,7 +7008,7 @@
         <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -6786,7 +7019,7 @@
         <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -6797,7 +7030,7 @@
         <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -6808,7 +7041,7 @@
         <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -6819,7 +7052,7 @@
         <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -6830,7 +7063,7 @@
         <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -6841,7 +7074,7 @@
         <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
     </row>
   </sheetData>
@@ -6877,7 +7110,7 @@
         <v>160</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -6885,7 +7118,7 @@
         <v>161</v>
       </c>
       <c r="B4" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -6893,7 +7126,7 @@
         <v>200</v>
       </c>
       <c r="B5" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -6901,7 +7134,7 @@
         <v>304</v>
       </c>
       <c r="B6" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -6909,7 +7142,7 @@
         <v>303</v>
       </c>
       <c r="B7" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
     </row>
   </sheetData>
@@ -6920,10 +7153,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F94BA0-EF4D-4448-98A4-D5DD01065361}">
-  <dimension ref="A2:B43"/>
+  <dimension ref="A2:B59"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6961,7 +7194,7 @@
         <v>454</v>
       </c>
       <c r="B6" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -6969,7 +7202,7 @@
         <v>455</v>
       </c>
       <c r="B7" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -6977,7 +7210,7 @@
         <v>454</v>
       </c>
       <c r="B8" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -6985,7 +7218,7 @@
         <v>456</v>
       </c>
       <c r="B9" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -6993,7 +7226,7 @@
         <v>457</v>
       </c>
       <c r="B10" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -7001,7 +7234,7 @@
         <v>458</v>
       </c>
       <c r="B11" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -7009,7 +7242,7 @@
         <v>459</v>
       </c>
       <c r="B12" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -7017,7 +7250,7 @@
         <v>460</v>
       </c>
       <c r="B13" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -7025,7 +7258,7 @@
         <v>461</v>
       </c>
       <c r="B14" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -7033,7 +7266,7 @@
         <v>462</v>
       </c>
       <c r="B15" t="s">
-        <v>691</v>
+        <v>835</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -7041,7 +7274,7 @@
         <v>463</v>
       </c>
       <c r="B16" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -7049,7 +7282,7 @@
         <v>464</v>
       </c>
       <c r="B17" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -7057,7 +7290,7 @@
         <v>465</v>
       </c>
       <c r="B18" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -7065,7 +7298,7 @@
         <v>466</v>
       </c>
       <c r="B19" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -7073,7 +7306,7 @@
         <v>467</v>
       </c>
       <c r="B20" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -7081,7 +7314,7 @@
         <v>468</v>
       </c>
       <c r="B21" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -7089,7 +7322,7 @@
         <v>469</v>
       </c>
       <c r="B22" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -7097,7 +7330,7 @@
         <v>470</v>
       </c>
       <c r="B23" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -7105,7 +7338,7 @@
         <v>471</v>
       </c>
       <c r="B24" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -7113,7 +7346,7 @@
         <v>472</v>
       </c>
       <c r="B25" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -7121,7 +7354,7 @@
         <v>473</v>
       </c>
       <c r="B26" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -7129,7 +7362,7 @@
         <v>474</v>
       </c>
       <c r="B27" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -7137,7 +7370,7 @@
         <v>475</v>
       </c>
       <c r="B28" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -7145,7 +7378,7 @@
         <v>476</v>
       </c>
       <c r="B29" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -7153,7 +7386,7 @@
         <v>477</v>
       </c>
       <c r="B30" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -7161,7 +7394,7 @@
         <v>478</v>
       </c>
       <c r="B31" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -7169,7 +7402,7 @@
         <v>479</v>
       </c>
       <c r="B32" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -7177,7 +7410,7 @@
         <v>480</v>
       </c>
       <c r="B33" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -7185,7 +7418,7 @@
         <v>481</v>
       </c>
       <c r="B34" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -7193,7 +7426,7 @@
         <v>482</v>
       </c>
       <c r="B35" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -7201,7 +7434,7 @@
         <v>483</v>
       </c>
       <c r="B36" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -7209,7 +7442,7 @@
         <v>484</v>
       </c>
       <c r="B37" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -7217,7 +7450,7 @@
         <v>485</v>
       </c>
       <c r="B38" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -7225,7 +7458,7 @@
         <v>486</v>
       </c>
       <c r="B39" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -7233,7 +7466,7 @@
         <v>487</v>
       </c>
       <c r="B40" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -7241,7 +7474,7 @@
         <v>488</v>
       </c>
       <c r="B41" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -7249,7 +7482,7 @@
         <v>489</v>
       </c>
       <c r="B42" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -7257,7 +7490,135 @@
         <v>490</v>
       </c>
       <c r="B43" t="s">
-        <v>708</v>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="56" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>870</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>872</v>
+      </c>
+      <c r="B45" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>873</v>
+      </c>
+      <c r="B46" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>881</v>
+      </c>
+      <c r="B47" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>882</v>
+      </c>
+      <c r="B48" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>883</v>
+      </c>
+      <c r="B49" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>884</v>
+      </c>
+      <c r="B50" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>885</v>
+      </c>
+      <c r="B51" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>886</v>
+      </c>
+      <c r="B52" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>887</v>
+      </c>
+      <c r="B53" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>888</v>
+      </c>
+      <c r="B54" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>889</v>
+      </c>
+      <c r="B55" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>890</v>
+      </c>
+      <c r="B56" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>891</v>
+      </c>
+      <c r="B57" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>892</v>
+      </c>
+      <c r="B58" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>893</v>
+      </c>
+      <c r="B59" t="s">
+        <v>904</v>
       </c>
     </row>
   </sheetData>
@@ -7271,7 +7632,7 @@
   <dimension ref="F14:G28"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7373,10 +7734,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256234DA-DFCC-4C64-B075-94895DF2EFDB}">
-  <dimension ref="A2:B69"/>
+  <dimension ref="A2:B74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7397,7 +7758,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -7405,7 +7766,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -7413,7 +7774,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -7421,7 +7782,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -7429,7 +7790,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -7437,7 +7798,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -7445,7 +7806,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -7453,7 +7814,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -7461,7 +7822,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -7469,7 +7830,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -7477,7 +7838,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -7485,7 +7846,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -7493,7 +7854,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -7501,7 +7862,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -7509,7 +7870,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -7517,7 +7878,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -7525,7 +7886,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -7533,7 +7894,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -7541,7 +7902,7 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -7549,7 +7910,7 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -7557,7 +7918,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -7565,7 +7926,7 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -7573,7 +7934,7 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -7581,7 +7942,7 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -7589,7 +7950,7 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -7597,7 +7958,7 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -7605,7 +7966,7 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -7613,7 +7974,7 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -7621,7 +7982,7 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -7629,7 +7990,7 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -7637,7 +7998,7 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -7645,7 +8006,7 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -7653,7 +8014,7 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -7661,7 +8022,7 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -7669,7 +8030,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -7677,7 +8038,7 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -7685,7 +8046,7 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -7693,7 +8054,7 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -7701,7 +8062,7 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -7709,7 +8070,7 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -7717,7 +8078,7 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -7725,7 +8086,7 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -7733,7 +8094,7 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -7741,7 +8102,7 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -7749,7 +8110,7 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -7757,7 +8118,7 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -7765,7 +8126,7 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -7773,7 +8134,7 @@
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -7781,7 +8142,7 @@
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -7789,7 +8150,7 @@
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -7797,7 +8158,7 @@
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -7805,7 +8166,7 @@
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -7813,7 +8174,7 @@
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -7821,7 +8182,7 @@
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -7829,7 +8190,7 @@
         <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -7837,7 +8198,7 @@
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -7845,7 +8206,7 @@
         <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -7853,7 +8214,7 @@
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -7861,7 +8222,7 @@
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -7869,7 +8230,7 @@
         <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -7877,7 +8238,7 @@
         <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -7885,7 +8246,7 @@
         <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -7893,7 +8254,7 @@
         <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -7901,7 +8262,7 @@
         <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -7909,7 +8270,7 @@
         <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -7917,7 +8278,47 @@
         <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>785</v>
+        <v>777</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>67</v>
+      </c>
+      <c r="B70" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>68</v>
+      </c>
+      <c r="B71" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>69</v>
+      </c>
+      <c r="B72" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>70</v>
+      </c>
+      <c r="B73" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>71</v>
+      </c>
+      <c r="B74" t="s">
+        <v>844</v>
       </c>
     </row>
   </sheetData>
@@ -7930,15 +8331,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD5E1049-6494-417E-A790-6BE56169812D}">
   <dimension ref="A2:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="C6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="23.58203125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="28.83203125" customWidth="1"/>
-    <col min="5" max="5" width="76.08203125" customWidth="1"/>
+    <col min="5" max="5" width="126.58203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.1640625" customWidth="1"/>
     <col min="7" max="7" width="15.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.08203125" bestFit="1" customWidth="1"/>
@@ -7985,22 +8386,22 @@
         <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="D4" t="s">
         <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="F4" t="s">
         <v>294</v>
       </c>
       <c r="G4" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="56" x14ac:dyDescent="0.3">
@@ -8008,22 +8409,22 @@
         <v>62</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="D5" t="s">
         <v>295</v>
       </c>
       <c r="E5" t="s">
-        <v>792</v>
+        <v>836</v>
       </c>
       <c r="F5" t="s">
         <v>294</v>
       </c>
       <c r="G5" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="84" x14ac:dyDescent="0.3">
@@ -8031,22 +8432,22 @@
         <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="D6" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="E6" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="F6" t="s">
         <v>294</v>
       </c>
       <c r="G6" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="84" x14ac:dyDescent="0.3">
@@ -8054,22 +8455,22 @@
         <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="D7" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
       <c r="E7" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
       <c r="F7" t="s">
         <v>294</v>
       </c>
       <c r="G7" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="98" x14ac:dyDescent="0.3">
@@ -8077,22 +8478,22 @@
         <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="D8" t="s">
         <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="F8" t="s">
         <v>294</v>
       </c>
       <c r="G8" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="84" x14ac:dyDescent="0.3">
@@ -8100,22 +8501,22 @@
         <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="D9" t="s">
         <v>305</v>
       </c>
       <c r="E9" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="F9" t="s">
         <v>294</v>
       </c>
       <c r="G9" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="70" x14ac:dyDescent="0.3">
@@ -8123,22 +8524,22 @@
         <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="D10" t="s">
         <v>306</v>
       </c>
       <c r="E10" t="s">
-        <v>846</v>
+        <v>834</v>
       </c>
       <c r="F10" t="s">
         <v>294</v>
       </c>
       <c r="G10" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="84" x14ac:dyDescent="0.3">
@@ -8146,22 +8547,22 @@
         <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
       <c r="D11" t="s">
         <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>844</v>
+        <v>832</v>
       </c>
       <c r="F11" t="s">
         <v>294</v>
       </c>
       <c r="G11" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="84" x14ac:dyDescent="0.3">
@@ -8169,22 +8570,22 @@
         <v>69</v>
       </c>
       <c r="B12" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="D12" t="s">
         <v>69</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>845</v>
+        <v>833</v>
       </c>
       <c r="F12" t="s">
         <v>294</v>
       </c>
       <c r="G12" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="42" x14ac:dyDescent="0.3">
@@ -8192,22 +8593,22 @@
         <v>70</v>
       </c>
       <c r="B13" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
       <c r="D13" t="s">
         <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>843</v>
+        <v>831</v>
       </c>
       <c r="F13" t="s">
         <v>294</v>
       </c>
       <c r="G13" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="42" x14ac:dyDescent="0.3">
@@ -8215,22 +8616,22 @@
         <v>71</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
       <c r="D14" t="s">
         <v>71</v>
       </c>
       <c r="E14" t="s">
-        <v>842</v>
+        <v>830</v>
       </c>
       <c r="F14" t="s">
         <v>294</v>
       </c>
       <c r="G14" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="42" x14ac:dyDescent="0.3">
@@ -8238,22 +8639,22 @@
         <v>72</v>
       </c>
       <c r="B15" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="D15" t="s">
         <v>72</v>
       </c>
       <c r="E15" t="s">
-        <v>840</v>
+        <v>829</v>
       </c>
       <c r="F15" t="s">
         <v>294</v>
       </c>
       <c r="G15" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="70" x14ac:dyDescent="0.3">
@@ -8261,22 +8662,22 @@
         <v>73</v>
       </c>
       <c r="B16" t="s">
+        <v>807</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>816</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>825</v>
       </c>
       <c r="D16" t="s">
         <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>839</v>
+        <v>828</v>
       </c>
       <c r="F16" t="s">
         <v>294</v>
       </c>
       <c r="G16" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="84" x14ac:dyDescent="0.3">
@@ -8284,22 +8685,22 @@
         <v>74</v>
       </c>
       <c r="B17" t="s">
+        <v>808</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>817</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>826</v>
       </c>
       <c r="D17" t="s">
         <v>307</v>
       </c>
-      <c r="E17" t="s">
-        <v>841</v>
+      <c r="E17" s="1" t="s">
+        <v>837</v>
       </c>
       <c r="F17" t="s">
         <v>294</v>
       </c>
       <c r="G17" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="56" x14ac:dyDescent="0.3">
@@ -8307,22 +8708,22 @@
         <v>75</v>
       </c>
       <c r="B18" t="s">
+        <v>809</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>818</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>827</v>
       </c>
       <c r="D18" t="s">
         <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>838</v>
+        <v>827</v>
       </c>
       <c r="F18" t="s">
         <v>294</v>
       </c>
       <c r="G18" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="56" x14ac:dyDescent="0.3">
@@ -8330,22 +8731,22 @@
         <v>76</v>
       </c>
       <c r="B19" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
       <c r="D19" t="s">
         <v>76</v>
       </c>
-      <c r="E19" t="s">
-        <v>837</v>
+      <c r="E19" s="1" t="s">
+        <v>838</v>
       </c>
       <c r="F19" t="s">
         <v>294</v>
       </c>
       <c r="G19" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="98" x14ac:dyDescent="0.3">
@@ -8353,22 +8754,22 @@
         <v>77</v>
       </c>
       <c r="B20" t="s">
-        <v>819</v>
+        <v>810</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>829</v>
+        <v>820</v>
       </c>
       <c r="D20" t="s">
         <v>77</v>
       </c>
-      <c r="E20" t="s">
-        <v>836</v>
+      <c r="E20" s="1" t="s">
+        <v>839</v>
       </c>
       <c r="F20" t="s">
         <v>294</v>
       </c>
       <c r="G20" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="56" x14ac:dyDescent="0.3">
@@ -8376,22 +8777,22 @@
         <v>78</v>
       </c>
       <c r="B21" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
       <c r="D21" t="s">
         <v>78</v>
       </c>
       <c r="E21" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="F21" t="s">
         <v>294</v>
       </c>
       <c r="G21" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="84" x14ac:dyDescent="0.3">
@@ -8402,19 +8803,19 @@
         <v>434</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="D22" t="s">
         <v>79</v>
       </c>
       <c r="E22" t="s">
-        <v>834</v>
+        <v>825</v>
       </c>
       <c r="F22" t="s">
         <v>294</v>
       </c>
       <c r="G22" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="56" x14ac:dyDescent="0.3">
@@ -8422,22 +8823,22 @@
         <v>80</v>
       </c>
       <c r="B23" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="D23" t="s">
         <v>80</v>
       </c>
       <c r="E23" t="s">
-        <v>833</v>
+        <v>824</v>
       </c>
       <c r="F23" t="s">
         <v>294</v>
       </c>
       <c r="G23" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/excel/english.xlsx
+++ b/Excel/excel/english.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\ProjectZoo\Excel\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1F11D4-05F5-4357-B135-957980A37B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E3C05A-361E-41A9-9323-4840A54CA2BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="861" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="907">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="929">
   <si>
     <t>uid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2045,11 +2045,6 @@
   </si>
   <si>
     <t>exhibit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gain $1 popularity for each pair of adjecent exhibits.
-(Currently: $d)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2600,15 +2595,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Recruit $1 new worker at a cost of 10 + number of recruits × 10.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Make one purchase in the Shop at $1% of the original price.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spend $2 coins to upgrade the Action Space $1 time(s).</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3493,10 +3480,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Play 1 Primate Exhibit card from your hand for free.(Limit time: $1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Play 1 Primate Exhibit card(s) from your hand for free.(Limit time: $w1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3644,6 +3627,110 @@
   </si>
   <si>
     <t>{0} temporary worker(s).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prWorker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prCoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prTWorker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prIncome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prBook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prDraw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plotReward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unknowPlot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0} workers.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0} income</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Plot rewards: </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unknown plot to be expanded</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cantLeaveWhenResolving</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cannot leave this page when resolving.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detailCont</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recruit 1 new worker at a cost of $r.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Recruit 1 new worker at a cost of $r(10+13/12/11/10/9 * recruitTime[current:$rt]). </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nothingHappened</t>
+  </si>
+  <si>
+    <t>nothing happened</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gainIncome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gain {0} income.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Play 1 Primate Exhibit card from your hand for free. (Limit time: $1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spend 15 coins to upgrade the Action Space once. (Limit time: $1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gain $1 popularity for each pair of adjecent Primate exhibits.
+(Currently: $d)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cantPlayActionSpaceCard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You already have 15 action spaces, cannot play any more.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3974,8 +4061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E139"/>
   <sheetViews>
-    <sheetView topLeftCell="B29" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4018,11 +4105,11 @@
         <v>360</v>
       </c>
       <c r="C4" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4033,11 +4120,11 @@
         <v>317</v>
       </c>
       <c r="C5" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>508</v>
+        <v>926</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4048,11 +4135,11 @@
         <v>318</v>
       </c>
       <c r="C6" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4063,11 +4150,11 @@
         <v>319</v>
       </c>
       <c r="C7" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -4078,11 +4165,11 @@
         <v>320</v>
       </c>
       <c r="C8" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -4093,11 +4180,11 @@
         <v>321</v>
       </c>
       <c r="C9" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -4108,11 +4195,11 @@
         <v>322</v>
       </c>
       <c r="C10" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -4123,11 +4210,11 @@
         <v>323</v>
       </c>
       <c r="C11" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -4138,11 +4225,11 @@
         <v>324</v>
       </c>
       <c r="C12" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4153,11 +4240,11 @@
         <v>325</v>
       </c>
       <c r="C13" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4168,10 +4255,10 @@
         <v>361</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4182,10 +4269,10 @@
         <v>362</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -4196,10 +4283,10 @@
         <v>363</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4210,10 +4297,10 @@
         <v>364</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -4225,7 +4312,7 @@
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4237,7 +4324,7 @@
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -4249,7 +4336,7 @@
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4261,7 +4348,7 @@
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4273,7 +4360,7 @@
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4285,7 +4372,7 @@
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4297,7 +4384,7 @@
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -4309,7 +4396,7 @@
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4321,7 +4408,7 @@
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4333,7 +4420,7 @@
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4345,7 +4432,7 @@
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4357,7 +4444,7 @@
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -4369,7 +4456,7 @@
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -4381,7 +4468,7 @@
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4393,7 +4480,7 @@
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -4405,7 +4492,7 @@
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -4417,7 +4504,7 @@
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -4428,11 +4515,11 @@
         <v>326</v>
       </c>
       <c r="C35" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -4443,11 +4530,11 @@
         <v>327</v>
       </c>
       <c r="C36" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -4458,11 +4545,11 @@
         <v>328</v>
       </c>
       <c r="C37" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="56" x14ac:dyDescent="0.3">
@@ -4473,11 +4560,11 @@
         <v>329</v>
       </c>
       <c r="C38" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -4488,11 +4575,11 @@
         <v>330</v>
       </c>
       <c r="C39" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4503,11 +4590,11 @@
         <v>331</v>
       </c>
       <c r="C40" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4518,11 +4605,11 @@
         <v>332</v>
       </c>
       <c r="C41" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4533,11 +4620,11 @@
         <v>333</v>
       </c>
       <c r="C42" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4548,11 +4635,11 @@
         <v>334</v>
       </c>
       <c r="C43" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4563,11 +4650,11 @@
         <v>335</v>
       </c>
       <c r="C44" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -4578,11 +4665,11 @@
         <v>336</v>
       </c>
       <c r="C45" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4593,10 +4680,10 @@
         <v>365</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -4607,10 +4694,10 @@
         <v>366</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -4621,10 +4708,10 @@
         <v>367</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4635,10 +4722,10 @@
         <v>368</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -4650,7 +4737,7 @@
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4662,7 +4749,7 @@
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -4674,7 +4761,7 @@
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -4686,7 +4773,7 @@
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -4698,7 +4785,7 @@
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -4710,7 +4797,7 @@
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4722,7 +4809,7 @@
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="42" x14ac:dyDescent="0.3">
@@ -4734,7 +4821,7 @@
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="42" x14ac:dyDescent="0.3">
@@ -4746,7 +4833,7 @@
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4758,7 +4845,7 @@
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -4770,7 +4857,7 @@
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4782,7 +4869,7 @@
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4794,7 +4881,7 @@
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -4806,7 +4893,7 @@
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -4818,7 +4905,7 @@
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -4830,7 +4917,7 @@
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -4842,7 +4929,7 @@
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4854,7 +4941,7 @@
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4865,11 +4952,11 @@
         <v>337</v>
       </c>
       <c r="C68" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="42" x14ac:dyDescent="0.3">
@@ -4880,11 +4967,11 @@
         <v>338</v>
       </c>
       <c r="C69" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4895,11 +4982,11 @@
         <v>339</v>
       </c>
       <c r="C70" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4910,11 +4997,11 @@
         <v>340</v>
       </c>
       <c r="C71" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -4925,11 +5012,11 @@
         <v>341</v>
       </c>
       <c r="C72" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4940,11 +5027,11 @@
         <v>342</v>
       </c>
       <c r="C73" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -4955,11 +5042,11 @@
         <v>343</v>
       </c>
       <c r="C74" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -4970,11 +5057,11 @@
         <v>344</v>
       </c>
       <c r="C75" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -4985,11 +5072,11 @@
         <v>345</v>
       </c>
       <c r="C76" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -5000,11 +5087,11 @@
         <v>346</v>
       </c>
       <c r="C77" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -5015,10 +5102,10 @@
         <v>369</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -5029,10 +5116,10 @@
         <v>370</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -5043,10 +5130,10 @@
         <v>371</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -5057,10 +5144,10 @@
         <v>372</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
@@ -5072,7 +5159,7 @@
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
@@ -5084,7 +5171,7 @@
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -5096,7 +5183,7 @@
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -5108,7 +5195,7 @@
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -5120,7 +5207,7 @@
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
@@ -5132,7 +5219,7 @@
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -5144,7 +5231,7 @@
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
@@ -5156,7 +5243,7 @@
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
@@ -5168,7 +5255,7 @@
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
@@ -5180,7 +5267,7 @@
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
@@ -5192,7 +5279,7 @@
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
@@ -5204,7 +5291,7 @@
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
@@ -5216,7 +5303,7 @@
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -5228,7 +5315,7 @@
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
@@ -5240,7 +5327,7 @@
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
@@ -5252,7 +5339,7 @@
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
@@ -5264,7 +5351,7 @@
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -5276,7 +5363,7 @@
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -5287,11 +5374,11 @@
         <v>347</v>
       </c>
       <c r="C100" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -5302,11 +5389,11 @@
         <v>348</v>
       </c>
       <c r="C101" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -5317,11 +5404,11 @@
         <v>349</v>
       </c>
       <c r="C102" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -5332,11 +5419,11 @@
         <v>350</v>
       </c>
       <c r="C103" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="D103" s="1"/>
       <c r="E103" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -5347,11 +5434,11 @@
         <v>351</v>
       </c>
       <c r="C104" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -5362,11 +5449,11 @@
         <v>352</v>
       </c>
       <c r="C105" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -5377,11 +5464,11 @@
         <v>353</v>
       </c>
       <c r="C106" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -5392,11 +5479,11 @@
         <v>354</v>
       </c>
       <c r="C107" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -5407,11 +5494,11 @@
         <v>355</v>
       </c>
       <c r="C108" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
@@ -5422,11 +5509,11 @@
         <v>356</v>
       </c>
       <c r="C109" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
@@ -5437,11 +5524,11 @@
         <v>357</v>
       </c>
       <c r="C110" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="D110" s="1"/>
       <c r="E110" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
@@ -5452,11 +5539,11 @@
         <v>358</v>
       </c>
       <c r="C111" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -5467,11 +5554,11 @@
         <v>359</v>
       </c>
       <c r="C112" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
@@ -5482,10 +5569,10 @@
         <v>373</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
@@ -5496,10 +5583,10 @@
         <v>374</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -5510,10 +5597,10 @@
         <v>375</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -5524,10 +5611,10 @@
         <v>376</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
@@ -5539,7 +5626,7 @@
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -5551,7 +5638,7 @@
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
@@ -5563,7 +5650,7 @@
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -5575,7 +5662,7 @@
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
@@ -5587,7 +5674,7 @@
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
@@ -5599,7 +5686,7 @@
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="56" x14ac:dyDescent="0.3">
@@ -5611,7 +5698,7 @@
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
@@ -5623,7 +5710,7 @@
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -5635,7 +5722,7 @@
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -5647,7 +5734,7 @@
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
@@ -5659,7 +5746,7 @@
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
@@ -5671,7 +5758,7 @@
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -5683,7 +5770,7 @@
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -5695,7 +5782,7 @@
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
@@ -5707,7 +5794,7 @@
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
@@ -5719,7 +5806,7 @@
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
@@ -5731,7 +5818,7 @@
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
@@ -5743,7 +5830,7 @@
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
@@ -5754,7 +5841,7 @@
         <v>447</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
@@ -5765,7 +5852,7 @@
         <v>448</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
@@ -5776,7 +5863,7 @@
         <v>449</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
@@ -5787,7 +5874,7 @@
         <v>450</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
@@ -5798,7 +5885,7 @@
         <v>451</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
   </sheetData>
@@ -5809,10 +5896,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE6872E-FB28-44F1-8AFD-A68325822C3A}">
-  <dimension ref="A2:C30"/>
+  <dimension ref="A2:D30"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:C7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5820,9 +5907,10 @@
     <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.4140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="72.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="69.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5832,19 +5920,22 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>308</v>
       </c>
       <c r="B4" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C4" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>310</v>
       </c>
@@ -5852,21 +5943,21 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>309</v>
       </c>
       <c r="B6" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C6" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>311</v>
       </c>
@@ -5874,10 +5965,13 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>918</v>
+      </c>
+      <c r="D7" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>312</v>
       </c>
@@ -5885,10 +5979,10 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>313</v>
       </c>
@@ -5896,10 +5990,10 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>314</v>
       </c>
@@ -5907,10 +6001,10 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>315</v>
       </c>
@@ -5918,10 +6012,10 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>153</v>
       </c>
@@ -5929,10 +6023,10 @@
         <v>99</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>154</v>
       </c>
@@ -5940,10 +6034,10 @@
         <v>100</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>155</v>
       </c>
@@ -5951,10 +6045,10 @@
         <v>101</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>156</v>
       </c>
@@ -5962,10 +6056,10 @@
         <v>102</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>157</v>
       </c>
@@ -5973,7 +6067,7 @@
         <v>103</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>868</v>
+        <v>924</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -5984,7 +6078,7 @@
         <v>115</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -5995,7 +6089,7 @@
         <v>116</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -6006,7 +6100,7 @@
         <v>13</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -6017,7 +6111,7 @@
         <v>117</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -6028,7 +6122,7 @@
         <v>118</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -6039,7 +6133,7 @@
         <v>119</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -6050,7 +6144,7 @@
         <v>120</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -6061,7 +6155,7 @@
         <v>121</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -6072,7 +6166,7 @@
         <v>14</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -6083,7 +6177,7 @@
         <v>131</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -6094,7 +6188,7 @@
         <v>132</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -6105,7 +6199,7 @@
         <v>134</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -6116,7 +6210,7 @@
         <v>133</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -6127,7 +6221,7 @@
         <v>135</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
     </row>
   </sheetData>
@@ -6792,7 +6886,7 @@
   <dimension ref="A2:C27"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6821,7 +6915,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -6832,7 +6926,7 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -6843,7 +6937,7 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -6854,7 +6948,7 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -6865,7 +6959,7 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -6876,7 +6970,7 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -6887,7 +6981,7 @@
         <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -6898,7 +6992,7 @@
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -6909,7 +7003,7 @@
         <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -6920,7 +7014,7 @@
         <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -6931,7 +7025,7 @@
         <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -6942,7 +7036,7 @@
         <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -6953,7 +7047,7 @@
         <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -6964,7 +7058,7 @@
         <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -6975,7 +7069,7 @@
         <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -6986,7 +7080,7 @@
         <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -6997,7 +7091,7 @@
         <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -7008,7 +7102,7 @@
         <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -7019,7 +7113,7 @@
         <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -7030,7 +7124,7 @@
         <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -7041,7 +7135,7 @@
         <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -7052,7 +7146,7 @@
         <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -7063,7 +7157,7 @@
         <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -7074,7 +7168,7 @@
         <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
   </sheetData>
@@ -7110,7 +7204,7 @@
         <v>160</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -7118,7 +7212,7 @@
         <v>161</v>
       </c>
       <c r="B4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -7126,7 +7220,7 @@
         <v>200</v>
       </c>
       <c r="B5" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -7134,7 +7228,7 @@
         <v>304</v>
       </c>
       <c r="B6" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -7142,7 +7236,7 @@
         <v>303</v>
       </c>
       <c r="B7" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
   </sheetData>
@@ -7153,10 +7247,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F94BA0-EF4D-4448-98A4-D5DD01065361}">
-  <dimension ref="A2:B59"/>
+  <dimension ref="A2:B72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7191,434 +7285,538 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>454</v>
+        <v>296</v>
       </c>
       <c r="B6" t="s">
-        <v>675</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B7" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B8" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B9" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B10" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B11" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B12" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B13" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B14" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B15" t="s">
-        <v>835</v>
+        <v>680</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B16" t="s">
-        <v>684</v>
+        <v>832</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B17" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B18" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B19" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B20" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B21" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B22" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B23" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B24" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B25" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B26" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B27" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B28" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B29" t="s">
-        <v>711</v>
+        <v>693</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B30" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B31" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B32" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B33" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B34" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B35" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B36" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B37" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B38" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B39" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B40" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B41" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B42" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>489</v>
+      </c>
+      <c r="B43" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>490</v>
       </c>
-      <c r="B43" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="56" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>870</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="56" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>872</v>
-      </c>
-      <c r="B45" t="s">
-        <v>877</v>
+        <v>866</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>868</v>
+      </c>
+      <c r="B46" t="s">
         <v>873</v>
-      </c>
-      <c r="B46" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>881</v>
+        <v>869</v>
       </c>
       <c r="B47" t="s">
-        <v>894</v>
+        <v>870</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="B48" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="B49" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="B50" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="B51" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="B52" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="B53" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="B54" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="B55" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="B56" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="B57" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="B58" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="B59" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>889</v>
+      </c>
+      <c r="B60" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>903</v>
+      </c>
+      <c r="B61" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>904</v>
+      </c>
+      <c r="B62" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>905</v>
+      </c>
+      <c r="B63" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>906</v>
+      </c>
+      <c r="B64" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>907</v>
+      </c>
+      <c r="B65" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>908</v>
+      </c>
+      <c r="B66" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>909</v>
+      </c>
+      <c r="B67" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>910</v>
+      </c>
+      <c r="B68" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>915</v>
+      </c>
+      <c r="B69" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>920</v>
+      </c>
+      <c r="B70" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>922</v>
+      </c>
+      <c r="B71" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>927</v>
+      </c>
+      <c r="B72" t="s">
+        <v>928</v>
       </c>
     </row>
   </sheetData>
@@ -7712,18 +7910,18 @@
     </row>
     <row r="27" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F27" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G27" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="28" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F28" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G28" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -7736,8 +7934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256234DA-DFCC-4C64-B075-94895DF2EFDB}">
   <dimension ref="A2:B74"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7758,7 +7956,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -7766,7 +7964,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -7774,7 +7972,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -7782,7 +7980,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -7790,7 +7988,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -7798,7 +7996,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -7806,7 +8004,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -7814,7 +8012,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -7822,7 +8020,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -7830,7 +8028,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -7838,7 +8036,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -7846,7 +8044,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -7854,7 +8052,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -7862,7 +8060,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -7870,7 +8068,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -7878,7 +8076,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -7886,7 +8084,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -7894,7 +8092,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -7902,7 +8100,7 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -7910,7 +8108,7 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -7918,7 +8116,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -7926,7 +8124,7 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -7934,7 +8132,7 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -7942,7 +8140,7 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -7950,7 +8148,7 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -7958,7 +8156,7 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -7966,7 +8164,7 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -7974,7 +8172,7 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -7982,7 +8180,7 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -7990,7 +8188,7 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -7998,7 +8196,7 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -8006,7 +8204,7 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -8014,7 +8212,7 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -8022,7 +8220,7 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -8030,7 +8228,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -8038,7 +8236,7 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -8046,7 +8244,7 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -8054,7 +8252,7 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -8062,7 +8260,7 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -8070,7 +8268,7 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -8078,7 +8276,7 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -8086,7 +8284,7 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -8094,7 +8292,7 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -8102,7 +8300,7 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -8110,7 +8308,7 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -8118,7 +8316,7 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -8126,7 +8324,7 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -8134,7 +8332,7 @@
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -8142,7 +8340,7 @@
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -8150,7 +8348,7 @@
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -8158,7 +8356,7 @@
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -8166,7 +8364,7 @@
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -8174,7 +8372,7 @@
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -8182,7 +8380,7 @@
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -8190,7 +8388,7 @@
         <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -8198,7 +8396,7 @@
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -8206,7 +8404,7 @@
         <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -8214,7 +8412,7 @@
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -8222,7 +8420,7 @@
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -8230,7 +8428,7 @@
         <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -8238,7 +8436,7 @@
         <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -8246,7 +8444,7 @@
         <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -8254,7 +8452,7 @@
         <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -8262,7 +8460,7 @@
         <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -8270,7 +8468,7 @@
         <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -8278,7 +8476,7 @@
         <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -8286,7 +8484,7 @@
         <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -8294,7 +8492,7 @@
         <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -8302,7 +8500,7 @@
         <v>69</v>
       </c>
       <c r="B72" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -8310,7 +8508,7 @@
         <v>70</v>
       </c>
       <c r="B73" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -8318,7 +8516,7 @@
         <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
     </row>
   </sheetData>
@@ -8386,22 +8584,22 @@
         <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="D4" t="s">
         <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="F4" t="s">
         <v>294</v>
       </c>
       <c r="G4" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="56" x14ac:dyDescent="0.3">
@@ -8409,22 +8607,22 @@
         <v>62</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="D5" t="s">
         <v>295</v>
       </c>
       <c r="E5" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="F5" t="s">
         <v>294</v>
       </c>
       <c r="G5" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="84" x14ac:dyDescent="0.3">
@@ -8432,22 +8630,22 @@
         <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="D6" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="E6" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="F6" t="s">
         <v>294</v>
       </c>
       <c r="G6" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="84" x14ac:dyDescent="0.3">
@@ -8455,22 +8653,22 @@
         <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="D7" t="s">
         <v>788</v>
       </c>
-      <c r="D7" t="s">
-        <v>791</v>
-      </c>
       <c r="E7" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="F7" t="s">
         <v>294</v>
       </c>
       <c r="G7" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="98" x14ac:dyDescent="0.3">
@@ -8478,22 +8676,22 @@
         <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="D8" t="s">
         <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="F8" t="s">
         <v>294</v>
       </c>
       <c r="G8" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="84" x14ac:dyDescent="0.3">
@@ -8501,22 +8699,22 @@
         <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="D9" t="s">
         <v>305</v>
       </c>
       <c r="E9" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="F9" t="s">
         <v>294</v>
       </c>
       <c r="G9" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="70" x14ac:dyDescent="0.3">
@@ -8524,22 +8722,22 @@
         <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="D10" t="s">
         <v>306</v>
       </c>
       <c r="E10" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="F10" t="s">
         <v>294</v>
       </c>
       <c r="G10" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="84" x14ac:dyDescent="0.3">
@@ -8547,22 +8745,22 @@
         <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="D11" t="s">
         <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="F11" t="s">
         <v>294</v>
       </c>
       <c r="G11" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="84" x14ac:dyDescent="0.3">
@@ -8570,22 +8768,22 @@
         <v>69</v>
       </c>
       <c r="B12" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="D12" t="s">
         <v>69</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="F12" t="s">
         <v>294</v>
       </c>
       <c r="G12" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="42" x14ac:dyDescent="0.3">
@@ -8593,22 +8791,22 @@
         <v>70</v>
       </c>
       <c r="B13" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="D13" t="s">
         <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="F13" t="s">
         <v>294</v>
       </c>
       <c r="G13" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="42" x14ac:dyDescent="0.3">
@@ -8616,22 +8814,22 @@
         <v>71</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="D14" t="s">
         <v>71</v>
       </c>
       <c r="E14" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="F14" t="s">
         <v>294</v>
       </c>
       <c r="G14" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="42" x14ac:dyDescent="0.3">
@@ -8639,22 +8837,22 @@
         <v>72</v>
       </c>
       <c r="B15" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="D15" t="s">
         <v>72</v>
       </c>
       <c r="E15" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="F15" t="s">
         <v>294</v>
       </c>
       <c r="G15" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="70" x14ac:dyDescent="0.3">
@@ -8662,22 +8860,22 @@
         <v>73</v>
       </c>
       <c r="B16" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="D16" t="s">
         <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="F16" t="s">
         <v>294</v>
       </c>
       <c r="G16" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="84" x14ac:dyDescent="0.3">
@@ -8685,22 +8883,22 @@
         <v>74</v>
       </c>
       <c r="B17" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="D17" t="s">
         <v>307</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="F17" t="s">
         <v>294</v>
       </c>
       <c r="G17" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="56" x14ac:dyDescent="0.3">
@@ -8708,22 +8906,22 @@
         <v>75</v>
       </c>
       <c r="B18" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="D18" t="s">
         <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="F18" t="s">
         <v>294</v>
       </c>
       <c r="G18" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="56" x14ac:dyDescent="0.3">
@@ -8731,22 +8929,22 @@
         <v>76</v>
       </c>
       <c r="B19" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="D19" t="s">
         <v>76</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="F19" t="s">
         <v>294</v>
       </c>
       <c r="G19" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="98" x14ac:dyDescent="0.3">
@@ -8754,22 +8952,22 @@
         <v>77</v>
       </c>
       <c r="B20" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="D20" t="s">
         <v>77</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="F20" t="s">
         <v>294</v>
       </c>
       <c r="G20" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="56" x14ac:dyDescent="0.3">
@@ -8777,22 +8975,22 @@
         <v>78</v>
       </c>
       <c r="B21" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="D21" t="s">
         <v>78</v>
       </c>
       <c r="E21" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="F21" t="s">
         <v>294</v>
       </c>
       <c r="G21" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="84" x14ac:dyDescent="0.3">
@@ -8803,19 +9001,19 @@
         <v>434</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="D22" t="s">
         <v>79</v>
       </c>
       <c r="E22" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="F22" t="s">
         <v>294</v>
       </c>
       <c r="G22" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="56" x14ac:dyDescent="0.3">
@@ -8823,22 +9021,22 @@
         <v>80</v>
       </c>
       <c r="B23" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="D23" t="s">
         <v>80</v>
       </c>
       <c r="E23" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="F23" t="s">
         <v>294</v>
       </c>
       <c r="G23" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/excel/english.xlsx
+++ b/Excel/excel/english.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\ProjectZoo\Excel\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E3C05A-361E-41A9-9323-4840A54CA2BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4425253A-3452-48AD-9D5F-5550AB9CEEC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="861" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19103" yWindow="7298" windowWidth="19395" windowHeight="11474" tabRatio="861" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="card" sheetId="1" r:id="rId1"/>
-    <sheet name="workPos" sheetId="5" r:id="rId2"/>
-    <sheet name="venue" sheetId="3" r:id="rId3"/>
+    <sheet name="actionSpace" sheetId="5" r:id="rId2"/>
+    <sheet name="exhibit" sheetId="3" r:id="rId3"/>
     <sheet name="book" sheetId="2" r:id="rId4"/>
     <sheet name="specWorker" sheetId="6" r:id="rId5"/>
     <sheet name="staticText" sheetId="8" r:id="rId6"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="929">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="931">
   <si>
     <t>uid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -743,10 +743,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>achi_poprating</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>achi_buru</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1875,18 +1871,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>playBigVenueFreely</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>playMonkeyFreely</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>chooseVenueDemolish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>normalWorker</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1951,15 +1939,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GetGold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>OncePerTurn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DontHaveVenue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2192,10 +2172,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Gain $1 popularity. Gain $1 popularity. Gain $1 popularity. Gain $1 popularity. Gain $1 popularity. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Gain $1 Popularity. After each resolution, permanently increase the Popularity gained by 2. (Resolved $d times.)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3731,6 +3707,42 @@
   </si>
   <si>
     <t>You already have 15 action spaces, cannot play any more.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain $1 popularity. 
+Gain $1 popularity. 
+Gain $1 popularity. 
+Gain $1 popularity. 
+Gain $1 popularity. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetCoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>achi_popularity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>playBigExhibitFreely</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chooseExhibitDemolish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DontHaveExhibit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mammal Exhibits</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reptile Exhibits</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4061,8 +4073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E139"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="B105" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4086,7 +4098,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
@@ -4094,7 +4106,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="40.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4102,14 +4114,14 @@
         <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C4" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4117,14 +4129,14 @@
         <v>91</v>
       </c>
       <c r="B5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C5" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4132,14 +4144,14 @@
         <v>92</v>
       </c>
       <c r="B6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C6" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4147,14 +4159,14 @@
         <v>93</v>
       </c>
       <c r="B7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C7" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -4162,14 +4174,14 @@
         <v>94</v>
       </c>
       <c r="B8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C8" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -4177,14 +4189,14 @@
         <v>95</v>
       </c>
       <c r="B9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C9" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -4192,14 +4204,14 @@
         <v>96</v>
       </c>
       <c r="B10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C10" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -4207,14 +4219,14 @@
         <v>97</v>
       </c>
       <c r="B11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C11" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -4222,29 +4234,29 @@
         <v>98</v>
       </c>
       <c r="B12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C12" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C13" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4252,13 +4264,13 @@
         <v>150</v>
       </c>
       <c r="B14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4266,13 +4278,13 @@
         <v>151</v>
       </c>
       <c r="B15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -4280,27 +4292,27 @@
         <v>152</v>
       </c>
       <c r="B16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B17" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -4308,11 +4320,11 @@
         <v>153</v>
       </c>
       <c r="B18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4320,11 +4332,11 @@
         <v>154</v>
       </c>
       <c r="B19" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -4332,11 +4344,11 @@
         <v>155</v>
       </c>
       <c r="B20" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4344,11 +4356,11 @@
         <v>156</v>
       </c>
       <c r="B21" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4356,11 +4368,11 @@
         <v>157</v>
       </c>
       <c r="B22" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4368,11 +4380,11 @@
         <v>158</v>
       </c>
       <c r="B23" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4380,23 +4392,23 @@
         <v>159</v>
       </c>
       <c r="B24" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B25" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4404,11 +4416,11 @@
         <v>160</v>
       </c>
       <c r="B26" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4416,11 +4428,11 @@
         <v>161</v>
       </c>
       <c r="B27" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4428,11 +4440,11 @@
         <v>162</v>
       </c>
       <c r="B28" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4440,11 +4452,11 @@
         <v>163</v>
       </c>
       <c r="B29" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -4452,11 +4464,11 @@
         <v>164</v>
       </c>
       <c r="B30" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -4464,11 +4476,11 @@
         <v>165</v>
       </c>
       <c r="B31" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4476,11 +4488,11 @@
         <v>166</v>
       </c>
       <c r="B32" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -4488,11 +4500,11 @@
         <v>167</v>
       </c>
       <c r="B33" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -4500,11 +4512,11 @@
         <v>168</v>
       </c>
       <c r="B34" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -4512,14 +4524,14 @@
         <v>169</v>
       </c>
       <c r="B35" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C35" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -4527,14 +4539,14 @@
         <v>170</v>
       </c>
       <c r="B36" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C36" t="s">
-        <v>872</v>
+        <v>929</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -4542,14 +4554,14 @@
         <v>171</v>
       </c>
       <c r="B37" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C37" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="56" x14ac:dyDescent="0.3">
@@ -4557,14 +4569,14 @@
         <v>172</v>
       </c>
       <c r="B38" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C38" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -4572,14 +4584,14 @@
         <v>173</v>
       </c>
       <c r="B39" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C39" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4587,29 +4599,29 @@
         <v>174</v>
       </c>
       <c r="B40" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C40" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B41" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C41" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4617,29 +4629,29 @@
         <v>175</v>
       </c>
       <c r="B42" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C42" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="70" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>176</v>
       </c>
       <c r="B43" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C43" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1" t="s">
-        <v>543</v>
+        <v>923</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -4647,14 +4659,14 @@
         <v>177</v>
       </c>
       <c r="B44" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C44" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -4662,1230 +4674,1230 @@
         <v>178</v>
       </c>
       <c r="B45" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C45" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>179</v>
+        <v>925</v>
       </c>
       <c r="B46" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B47" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B48" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B49" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B50" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B51" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B52" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B53" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B54" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B55" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B56" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="42" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B57" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="42" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B58" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B59" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B60" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B61" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B62" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B63" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B64" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B65" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B66" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B68" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C68" t="s">
-        <v>874</v>
+        <v>930</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="42" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B69" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C69" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B70" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C70" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B71" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C71" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B72" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C72" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B73" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C73" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B74" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C74" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B75" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C75" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B76" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C76" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B77" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C77" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B78" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B79" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B80" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B81" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B82" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B84" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B85" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B86" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B87" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B88" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B89" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B90" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B91" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B92" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B93" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B94" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B95" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B96" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B97" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B98" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B99" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B100" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C100" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="1" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B101" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C101" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B102" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C102" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="1" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B103" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C103" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="D103" s="1"/>
       <c r="E103" s="1" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B104" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C104" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B105" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C105" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B106" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C106" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B107" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C107" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B108" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C108" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B109" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C109" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B110" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C110" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="D110" s="1"/>
       <c r="E110" s="1" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B111" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C111" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B112" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C112" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="1" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B113" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B114" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B115" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B116" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B117" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B118" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B119" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B120" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B121" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B122" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="56" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B123" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B124" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="1" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B125" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B126" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B127" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B128" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B129" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B130" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B131" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B132" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B133" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="1" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B134" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="1" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B135" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B136" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B137" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B138" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B139" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
     </row>
   </sheetData>
@@ -5898,7 +5910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE6872E-FB28-44F1-8AFD-A68325822C3A}">
   <dimension ref="A2:D30"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -5921,98 +5933,98 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B4" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="C4" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B6" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="C6" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="D7" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -6023,7 +6035,7 @@
         <v>99</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -6034,7 +6046,7 @@
         <v>100</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -6045,7 +6057,7 @@
         <v>101</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -6056,7 +6068,7 @@
         <v>102</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -6067,161 +6079,161 @@
         <v>103</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B17" t="s">
         <v>115</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B18" t="s">
         <v>116</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B20" t="s">
         <v>117</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B21" t="s">
         <v>118</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B22" t="s">
         <v>119</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B23" t="s">
         <v>120</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B24" t="s">
         <v>121</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B25" t="s">
         <v>14</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B26" t="s">
         <v>131</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B27" t="s">
         <v>132</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B28" t="s">
         <v>134</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B29" t="s">
         <v>133</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B30" t="s">
         <v>135</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
     </row>
   </sheetData>
@@ -6256,7 +6268,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -6267,10 +6279,10 @@
         <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -6281,10 +6293,10 @@
         <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -6295,10 +6307,10 @@
         <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -6309,10 +6321,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -6323,10 +6335,10 @@
         <v>86</v>
       </c>
       <c r="C8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -6337,10 +6349,10 @@
         <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -6351,10 +6363,10 @@
         <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -6365,10 +6377,10 @@
         <v>89</v>
       </c>
       <c r="C11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -6379,24 +6391,24 @@
         <v>90</v>
       </c>
       <c r="C12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -6407,10 +6419,10 @@
         <v>104</v>
       </c>
       <c r="C14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D14" t="s">
         <v>272</v>
-      </c>
-      <c r="D14" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -6421,10 +6433,10 @@
         <v>105</v>
       </c>
       <c r="C15" t="s">
+        <v>271</v>
+      </c>
+      <c r="D15" t="s">
         <v>272</v>
-      </c>
-      <c r="D15" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -6435,10 +6447,10 @@
         <v>106</v>
       </c>
       <c r="C16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -6449,10 +6461,10 @@
         <v>107</v>
       </c>
       <c r="C17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D17" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -6463,10 +6475,10 @@
         <v>108</v>
       </c>
       <c r="C18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -6477,24 +6489,24 @@
         <v>109</v>
       </c>
       <c r="C19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D19" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B20" t="s">
         <v>110</v>
       </c>
       <c r="C20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -6505,10 +6517,10 @@
         <v>111</v>
       </c>
       <c r="C21" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -6519,10 +6531,10 @@
         <v>112</v>
       </c>
       <c r="C22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -6533,10 +6545,10 @@
         <v>113</v>
       </c>
       <c r="C23" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D23" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -6547,332 +6559,332 @@
         <v>114</v>
       </c>
       <c r="C24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D24" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B25" t="s">
         <v>141</v>
       </c>
       <c r="C25" t="s">
+        <v>278</v>
+      </c>
+      <c r="D25" t="s">
         <v>279</v>
-      </c>
-      <c r="D25" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B26" t="s">
         <v>142</v>
       </c>
       <c r="C26" t="s">
+        <v>278</v>
+      </c>
+      <c r="D26" t="s">
         <v>279</v>
-      </c>
-      <c r="D26" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B27" t="s">
         <v>143</v>
       </c>
       <c r="C27" t="s">
+        <v>278</v>
+      </c>
+      <c r="D27" t="s">
         <v>279</v>
-      </c>
-      <c r="D27" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B28" t="s">
         <v>144</v>
       </c>
       <c r="C28" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D28" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B29" t="s">
         <v>145</v>
       </c>
       <c r="C29" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D29" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B30" t="s">
         <v>146</v>
       </c>
       <c r="C30" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D30" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B31" t="s">
         <v>147</v>
       </c>
       <c r="C31" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D31" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B32" t="s">
         <v>140</v>
       </c>
       <c r="C32" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D32" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B33" t="s">
         <v>148</v>
       </c>
       <c r="C33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D33" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B34" t="s">
         <v>149</v>
       </c>
       <c r="C34" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B35" t="s">
         <v>122</v>
       </c>
       <c r="C35" t="s">
+        <v>283</v>
+      </c>
+      <c r="D35" t="s">
         <v>284</v>
-      </c>
-      <c r="D35" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B36" t="s">
         <v>123</v>
       </c>
       <c r="C36" t="s">
+        <v>283</v>
+      </c>
+      <c r="D36" t="s">
         <v>284</v>
-      </c>
-      <c r="D36" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B37" t="s">
         <v>124</v>
       </c>
       <c r="C37" t="s">
+        <v>283</v>
+      </c>
+      <c r="D37" t="s">
         <v>284</v>
-      </c>
-      <c r="D37" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B38" t="s">
         <v>125</v>
       </c>
       <c r="C38" t="s">
+        <v>283</v>
+      </c>
+      <c r="D38" t="s">
         <v>284</v>
-      </c>
-      <c r="D38" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B39" t="s">
         <v>126</v>
       </c>
       <c r="C39" t="s">
+        <v>283</v>
+      </c>
+      <c r="D39" t="s">
         <v>284</v>
-      </c>
-      <c r="D39" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B40" t="s">
         <v>127</v>
       </c>
       <c r="C40" t="s">
+        <v>283</v>
+      </c>
+      <c r="D40" t="s">
         <v>284</v>
-      </c>
-      <c r="D40" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B41" t="s">
         <v>128</v>
       </c>
       <c r="C41" t="s">
+        <v>283</v>
+      </c>
+      <c r="D41" t="s">
         <v>284</v>
-      </c>
-      <c r="D41" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B42" t="s">
         <v>129</v>
       </c>
       <c r="C42" t="s">
+        <v>283</v>
+      </c>
+      <c r="D42" t="s">
         <v>284</v>
-      </c>
-      <c r="D42" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B43" t="s">
         <v>130</v>
       </c>
       <c r="C43" t="s">
+        <v>283</v>
+      </c>
+      <c r="D43" t="s">
         <v>284</v>
-      </c>
-      <c r="D43" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B44" t="s">
         <v>138</v>
       </c>
       <c r="C44" t="s">
+        <v>283</v>
+      </c>
+      <c r="D44" t="s">
         <v>284</v>
-      </c>
-      <c r="D44" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B45" t="s">
         <v>136</v>
       </c>
       <c r="C45" t="s">
+        <v>283</v>
+      </c>
+      <c r="D45" t="s">
         <v>284</v>
-      </c>
-      <c r="D45" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B46" t="s">
         <v>137</v>
       </c>
       <c r="C46" t="s">
+        <v>283</v>
+      </c>
+      <c r="D46" t="s">
         <v>284</v>
-      </c>
-      <c r="D46" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B47" t="s">
         <v>139</v>
       </c>
       <c r="C47" t="s">
+        <v>283</v>
+      </c>
+      <c r="D47" t="s">
         <v>284</v>
-      </c>
-      <c r="D47" t="s">
-        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -6915,7 +6927,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -6926,7 +6938,7 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -6937,7 +6949,7 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -6948,7 +6960,7 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -6959,18 +6971,18 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -6981,7 +6993,7 @@
         <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -6992,7 +7004,7 @@
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -7003,7 +7015,7 @@
         <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -7014,7 +7026,7 @@
         <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -7025,18 +7037,18 @@
         <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B15" t="s">
         <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -7047,7 +7059,7 @@
         <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -7058,7 +7070,7 @@
         <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -7069,7 +7081,7 @@
         <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -7080,7 +7092,7 @@
         <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -7091,7 +7103,7 @@
         <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -7102,7 +7114,7 @@
         <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -7113,7 +7125,7 @@
         <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -7124,7 +7136,7 @@
         <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -7135,7 +7147,7 @@
         <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -7146,7 +7158,7 @@
         <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -7157,7 +7169,7 @@
         <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -7168,7 +7180,7 @@
         <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
     </row>
   </sheetData>
@@ -7204,7 +7216,7 @@
         <v>160</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -7212,31 +7224,31 @@
         <v>161</v>
       </c>
       <c r="B4" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B5" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B6" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B7" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
     </row>
   </sheetData>
@@ -7249,8 +7261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F94BA0-EF4D-4448-98A4-D5DD01065361}">
   <dimension ref="A2:B72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7269,554 +7281,554 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B7" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B8" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B9" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B10" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B11" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B12" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B13" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B14" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B15" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B16" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B17" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>464</v>
+        <v>926</v>
       </c>
       <c r="B18" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B19" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>466</v>
+        <v>927</v>
       </c>
       <c r="B20" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B21" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B22" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B23" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B24" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B25" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B26" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B27" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B28" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B29" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B30" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B31" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B32" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B33" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B34" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B35" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B36" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>483</v>
+        <v>924</v>
       </c>
       <c r="B37" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B38" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>485</v>
+        <v>928</v>
       </c>
       <c r="B39" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="B40" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="B41" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="B42" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="B43" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="B44" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="56" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="B46" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="B47" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="B48" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="B49" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="B50" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="B51" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="B52" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="B53" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="B54" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="B55" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="B56" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="B57" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="B58" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="B59" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="B60" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="B61" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="B62" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="B63" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
+        <v>900</v>
+      </c>
+      <c r="B64" t="s">
         <v>906</v>
-      </c>
-      <c r="B64" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="B65" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="B66" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="B67" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="B68" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="B69" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="B70" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="B71" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="B72" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
     </row>
   </sheetData>
@@ -7841,87 +7853,87 @@
   <sheetData>
     <row r="14" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F14" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="19" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F19" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="G19" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="20" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F20" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="G20" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="21" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F21" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="G21" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="22" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F22" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="G22" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="23" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F23" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="G23" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="24" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F24" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="G24" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="25" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F25" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="G25" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="26" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F26" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="G26" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="27" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F27" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="G27" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="28" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F28" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="G28" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
   </sheetData>
@@ -7956,7 +7968,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -7964,7 +7976,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -7972,7 +7984,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -7980,7 +7992,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -7988,7 +8000,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -7996,7 +8008,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -8004,7 +8016,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -8012,7 +8024,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -8020,7 +8032,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -8028,7 +8040,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -8036,7 +8048,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -8044,7 +8056,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -8052,7 +8064,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -8060,7 +8072,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -8068,7 +8080,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -8076,7 +8088,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -8084,7 +8096,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -8092,7 +8104,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -8100,7 +8112,7 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -8108,7 +8120,7 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -8116,7 +8128,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -8124,7 +8136,7 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -8132,7 +8144,7 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -8140,7 +8152,7 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -8148,7 +8160,7 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -8156,7 +8168,7 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -8164,7 +8176,7 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -8172,7 +8184,7 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -8180,7 +8192,7 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -8188,7 +8200,7 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -8196,7 +8208,7 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -8204,7 +8216,7 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -8212,7 +8224,7 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -8220,7 +8232,7 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -8228,7 +8240,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -8236,7 +8248,7 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -8244,7 +8256,7 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -8252,7 +8264,7 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -8260,7 +8272,7 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -8268,7 +8280,7 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -8276,7 +8288,7 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -8284,7 +8296,7 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -8292,7 +8304,7 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -8300,7 +8312,7 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -8308,7 +8320,7 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -8316,7 +8328,7 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -8324,7 +8336,7 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -8332,7 +8344,7 @@
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -8340,7 +8352,7 @@
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -8348,7 +8360,7 @@
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -8356,7 +8368,7 @@
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -8364,7 +8376,7 @@
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -8372,7 +8384,7 @@
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -8380,7 +8392,7 @@
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -8388,7 +8400,7 @@
         <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -8396,7 +8408,7 @@
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -8404,7 +8416,7 @@
         <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -8412,7 +8424,7 @@
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -8420,7 +8432,7 @@
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -8428,7 +8440,7 @@
         <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -8436,7 +8448,7 @@
         <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -8444,7 +8456,7 @@
         <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -8452,7 +8464,7 @@
         <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -8460,7 +8472,7 @@
         <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -8468,7 +8480,7 @@
         <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -8476,7 +8488,7 @@
         <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -8484,7 +8496,7 @@
         <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -8492,7 +8504,7 @@
         <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -8500,7 +8512,7 @@
         <v>69</v>
       </c>
       <c r="B72" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -8508,7 +8520,7 @@
         <v>70</v>
       </c>
       <c r="B73" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -8516,7 +8528,7 @@
         <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
     </row>
   </sheetData>
@@ -8555,25 +8567,25 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G2" t="s">
         <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I2" t="s">
         <v>7</v>
       </c>
       <c r="J2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K2" t="s">
         <v>8</v>
@@ -8584,22 +8596,22 @@
         <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="D4" t="s">
         <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="F4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G4" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="56" x14ac:dyDescent="0.3">
@@ -8607,22 +8619,22 @@
         <v>62</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="D5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E5" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="F5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G5" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="84" x14ac:dyDescent="0.3">
@@ -8630,22 +8642,22 @@
         <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="D6" t="s">
+        <v>771</v>
+      </c>
+      <c r="E6" t="s">
         <v>777</v>
       </c>
-      <c r="E6" t="s">
-        <v>783</v>
-      </c>
       <c r="F6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G6" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="84" x14ac:dyDescent="0.3">
@@ -8653,22 +8665,22 @@
         <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="D7" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="E7" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="F7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G7" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="98" x14ac:dyDescent="0.3">
@@ -8676,22 +8688,22 @@
         <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="D8" t="s">
         <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="F8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G8" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="84" x14ac:dyDescent="0.3">
@@ -8699,22 +8711,22 @@
         <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="D9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E9" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="F9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G9" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="70" x14ac:dyDescent="0.3">
@@ -8722,22 +8734,22 @@
         <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="D10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E10" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="F10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G10" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="84" x14ac:dyDescent="0.3">
@@ -8745,22 +8757,22 @@
         <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="D11" t="s">
         <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="F11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G11" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="84" x14ac:dyDescent="0.3">
@@ -8768,22 +8780,22 @@
         <v>69</v>
       </c>
       <c r="B12" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="D12" t="s">
         <v>69</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="F12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G12" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="42" x14ac:dyDescent="0.3">
@@ -8791,22 +8803,22 @@
         <v>70</v>
       </c>
       <c r="B13" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="D13" t="s">
         <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="F13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G13" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="42" x14ac:dyDescent="0.3">
@@ -8814,22 +8826,22 @@
         <v>71</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="D14" t="s">
         <v>71</v>
       </c>
       <c r="E14" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="F14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G14" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="42" x14ac:dyDescent="0.3">
@@ -8837,22 +8849,22 @@
         <v>72</v>
       </c>
       <c r="B15" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="D15" t="s">
         <v>72</v>
       </c>
       <c r="E15" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="F15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G15" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="70" x14ac:dyDescent="0.3">
@@ -8860,22 +8872,22 @@
         <v>73</v>
       </c>
       <c r="B16" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="D16" t="s">
         <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="F16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G16" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="84" x14ac:dyDescent="0.3">
@@ -8883,22 +8895,22 @@
         <v>74</v>
       </c>
       <c r="B17" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="D17" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="F17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G17" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="56" x14ac:dyDescent="0.3">
@@ -8906,22 +8918,22 @@
         <v>75</v>
       </c>
       <c r="B18" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="D18" t="s">
         <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="F18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G18" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="56" x14ac:dyDescent="0.3">
@@ -8929,22 +8941,22 @@
         <v>76</v>
       </c>
       <c r="B19" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="D19" t="s">
         <v>76</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="F19" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G19" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="98" x14ac:dyDescent="0.3">
@@ -8952,22 +8964,22 @@
         <v>77</v>
       </c>
       <c r="B20" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="D20" t="s">
         <v>77</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="F20" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G20" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="56" x14ac:dyDescent="0.3">
@@ -8975,22 +8987,22 @@
         <v>78</v>
       </c>
       <c r="B21" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="D21" t="s">
         <v>78</v>
       </c>
       <c r="E21" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="F21" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G21" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="84" x14ac:dyDescent="0.3">
@@ -8998,22 +9010,22 @@
         <v>79</v>
       </c>
       <c r="B22" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="D22" t="s">
         <v>79</v>
       </c>
       <c r="E22" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="F22" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G22" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="56" x14ac:dyDescent="0.3">
@@ -9021,22 +9033,22 @@
         <v>80</v>
       </c>
       <c r="B23" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="D23" t="s">
         <v>80</v>
       </c>
       <c r="E23" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="F23" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G23" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
     </row>
   </sheetData>
